--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value160.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value160.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.090893463162343</v>
+        <v>4.038511753082275</v>
       </c>
       <c r="B1">
-        <v>1.699480799229995</v>
+        <v>3.474916696548462</v>
       </c>
       <c r="C1">
-        <v>2.010458026841014</v>
+        <v>2.690839290618896</v>
       </c>
       <c r="D1">
-        <v>2.207569739715721</v>
+        <v>2.569641351699829</v>
       </c>
       <c r="E1">
-        <v>1.982336728122124</v>
+        <v>2.614851236343384</v>
       </c>
     </row>
   </sheetData>
